--- a/data/trans_bre/POLIPATOLOGIA_5-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3227825217576873</v>
+        <v>-0.01354940779013295</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.519531723965431</v>
+        <v>6.484314956279746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.032073996840507</v>
+        <v>7.169719367249147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.91049234475976</v>
+        <v>7.533683910643798</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.03764064248150593</v>
+        <v>-0.003485329611141051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.153960650322333</v>
+        <v>1.094330218483314</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.265233113080773</v>
+        <v>1.308741272207344</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.361529196843494</v>
+        <v>0.4124565115213447</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.537895887129984</v>
+        <v>6.017041281491903</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.40209625314855</v>
+        <v>11.44136304977525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.88401053308316</v>
+        <v>12.02065733270278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.83211818262884</v>
+        <v>16.14390297108845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8656178075079028</v>
+        <v>1.009954244847312</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.099747662425976</v>
+        <v>3.210947890455187</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.299581848327361</v>
+        <v>3.466596617777152</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.178827792113105</v>
+        <v>1.253083396532388</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.355528873187448</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.219006967672712</v>
+        <v>9.219006967672716</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8558896756449126</v>
@@ -749,7 +749,7 @@
         <v>1.718192052238068</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.081272140293848</v>
+        <v>1.081272140293849</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5879945525494394</v>
+        <v>0.6441372475602702</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.384982504932695</v>
+        <v>3.444795855692629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.145307774180259</v>
+        <v>3.218068352430963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.719151297277853</v>
+        <v>6.741027650698578</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1903806480762806</v>
+        <v>0.1969062041720325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7520320521157572</v>
+        <v>0.7328489333910863</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7659660065421852</v>
+        <v>0.751940962544967</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6775829027070097</v>
+        <v>0.6733644022951712</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.881069998849986</v>
+        <v>3.742776736425762</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.68550459411986</v>
+        <v>7.719109991838236</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.566264315982766</v>
+        <v>7.611532486531313</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.66946129633655</v>
+        <v>11.58281284162453</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.997426135123217</v>
+        <v>1.837411851988082</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.009648006735763</v>
+        <v>2.99086835190832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.217953140031554</v>
+        <v>3.200988448544353</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.562729630878657</v>
+        <v>1.600896954948874</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.645819723386195</v>
+        <v>1.654926337812592</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.419268959846179</v>
+        <v>1.510863571383504</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.343568193336702</v>
+        <v>1.359266342854403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.084465147250533</v>
+        <v>4.160781405258153</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.645889515435199</v>
+        <v>0.5837284972845945</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2965620200074553</v>
+        <v>0.2970563090824884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3123464107198569</v>
+        <v>0.2986266089758619</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5717201024000165</v>
+        <v>0.5405215327388014</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.935160065596345</v>
+        <v>5.014076250586188</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.886652480289057</v>
+        <v>5.838466603668223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.61238222897174</v>
+        <v>5.828636841481386</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.22818797988327</v>
+        <v>8.381150162686151</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.463106374134796</v>
+        <v>3.760194714665329</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.073747409213826</v>
+        <v>2.007053246730991</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.269952681541653</v>
+        <v>2.409938672999561</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.564533496279685</v>
+        <v>1.562461218154027</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3269757030334609</v>
+        <v>0.1942948488623153</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.082706757248885</v>
+        <v>1.196222209988372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.434542190788866</v>
+        <v>1.511693153523624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.443723933195662</v>
+        <v>2.389004600676571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01550153568159441</v>
+        <v>-0.07438865925448619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1871288808537342</v>
+        <v>0.1922640523749853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3216854287078669</v>
+        <v>0.3371566885658417</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2906097440463038</v>
+        <v>0.2811890642718082</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.41412940304587</v>
+        <v>6.387913371391801</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.012507910670627</v>
+        <v>7.158219680252509</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.982572793413406</v>
+        <v>6.63080661041344</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.821829301494962</v>
+        <v>6.836390973262918</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.349641955768957</v>
+        <v>3.001963271311875</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.959785928775107</v>
+        <v>3.947051995636654</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.945486316231277</v>
+        <v>5.49532512460339</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.143271557045523</v>
+        <v>1.142963296861323</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.278893096112692</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.915955093710673</v>
+        <v>7.915955093710675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.994153533788433</v>
@@ -1049,7 +1049,7 @@
         <v>1.814640876349702</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.9331891139468558</v>
+        <v>0.9331891139468561</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.178692471055782</v>
+        <v>2.220174647752808</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.80212683063024</v>
+        <v>4.68370335314952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.169360930909399</v>
+        <v>5.115079261872967</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.567133501186626</v>
+        <v>6.755428207104014</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.565208831105356</v>
+        <v>0.5949273264564806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.116495139483535</v>
+        <v>1.05598188780528</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.281817335685086</v>
+        <v>1.297709731315332</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7059738091315758</v>
+        <v>0.7349304926133179</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.389547818152715</v>
+        <v>4.389261492776638</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.214440222064209</v>
+        <v>7.164901521680371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.592312601979057</v>
+        <v>7.613244461343862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.270742157980104</v>
+        <v>9.206884652398946</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.498932201893142</v>
+        <v>1.515988762960891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.143410046613554</v>
+        <v>2.173201991640263</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.479847190396806</v>
+        <v>2.474363236420656</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.194043510038945</v>
+        <v>1.171787120001942</v>
       </c>
     </row>
     <row r="19">
